--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lethihongnhung/Desktop/pp so/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lethihongnhung/Desktop/PP-so/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DFFEE7-27CF-634C-8B8E-B67AFCB64206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27164237-5A9F-9C4A-8619-5F23B392DFB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9746C11F-56AA-B54F-ADE6-2290D58A1BDE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{9746C11F-56AA-B54F-ADE6-2290D58A1BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lethihongnhung/Desktop/PP-so/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27164237-5A9F-9C4A-8619-5F23B392DFB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1CAEA2-DA38-6F41-9ED6-9DB72F3DB6AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{9746C11F-56AA-B54F-ADE6-2290D58A1BDE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9746C11F-56AA-B54F-ADE6-2290D58A1BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECBCCA9-DFEE-9D4B-A2A5-309CDD69CAFB}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -408,34 +408,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>2.4500000000000002</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="B3">
-        <v>3.35</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="B4">
-        <v>3.87</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.8</v>
+      </c>
+      <c r="B6">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1.2</v>
+      </c>
+      <c r="B8">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lethihongnhung/Desktop/PP-so/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1CAEA2-DA38-6F41-9ED6-9DB72F3DB6AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9166B4-76C9-3A45-BA79-27C990E68E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9746C11F-56AA-B54F-ADE6-2290D58A1BDE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{9746C11F-56AA-B54F-ADE6-2290D58A1BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -390,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECBCCA9-DFEE-9D4B-A2A5-309CDD69CAFB}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -408,58 +409,893 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1.27</v>
+        <f>SIN(A2)</f>
+        <v>0.8414709848078965</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="B3">
-        <v>2.14</v>
+        <f t="shared" ref="B3:B66" si="0">SIN(A3)</f>
+        <v>0.93203908596722629</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="B4">
-        <v>3.01</v>
+        <f t="shared" si="0"/>
+        <v>0.98544972998846014</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="B5">
-        <v>3.86</v>
+        <f t="shared" si="0"/>
+        <v>0.99957360304150511</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="B6">
-        <v>3.45</v>
+        <f t="shared" si="0"/>
+        <v>0.97384763087819515</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>2.0499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.90929742682568171</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B8">
-        <v>1.75</v>
+        <f t="shared" si="0"/>
+        <v>0.80849640381959009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2.4</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.67546318055115095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2.6</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.51550137182146416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2.8</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.33498815015590511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.14112000805986721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3.2</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>-5.8374143427580086E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3.4</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>-0.25554110202683122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3.6</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>-0.44252044329485246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3.8</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>-0.61185789094271892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>-0.7568024953079282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4.2</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>-0.87157577241358819</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>-0.95160207388951601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>-0.99369100363346441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4.8</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>-0.99616460883584068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>-0.95892427466313845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5.2</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>-0.88345465572015314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5.4</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>-0.77276448755598715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5.6</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>-0.63126663787232162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5.8</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>-0.46460217941375737</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>-0.27941549819892586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6.2</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>-8.3089402817496397E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6.4</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0.11654920485049364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6.6</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.31154136351337786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6.8</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.49411335113860816</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.65698659871878906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>7.2</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.79366786384915311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>7.4</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0.89870809581162692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>7.6</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0.96791967203148632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>7.8</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0.99854334537460498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0.98935824662338179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0.94073055667977312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>8.4</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>0.85459890808828043</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>8.6</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0.73439709787411334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0.58491719289176169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0.41211848524175659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>0.22288991410024764</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9.4</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>2.4775425453357765E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9.6</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>-0.17432678122297965</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>-0.36647912925192838</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>-0.54402111088936977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>-0.69987468759354232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>10.4</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>-0.82782646908565372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>10.6</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>-0.92277542161280657</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>10.8</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>-0.98093623006649155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>-0.99999020655070348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>11.2</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>-0.9791777291513174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>11.4</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>-0.91932852566467571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>11.6</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>-0.82282859496870886</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>11.8</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>-0.69352508477712238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>-0.53657291800043494</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>12.2</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>-0.35822928223682871</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>12.4</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>-0.16560417544830941</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>12.6</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>3.3623047221136695E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>12.8</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0.23150982510153895</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>0.42016703682664092</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>13.2</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0.59207351470722303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>13.4</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0.74037588995244863</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>13.6</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0.85916181485649579</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>13.8</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>0.94369566944410477</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>14</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B100" si="1">SIN(A67)</f>
+        <v>0.99060735569487035</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>14.2</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>0.99802665271636171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>14.4</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>0.96565777654927742</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>14.6</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>0.89479117214050419</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>14.8</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>0.78825206737531628</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>15</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>0.65028784015711683</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>15.2</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>0.48639868885379967</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>15.4</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>0.30311835674570226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>15.6</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>0.10775365229944406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>15.8</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>-9.1906850227681636E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>16</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>-0.2879033166650653</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>16.2</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>-0.47242198639846616</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>-0.63810668234794743</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>-0.77835207853429844</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>16.8</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>-0.88756703358150457</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>17</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>-0.96139749187955681</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>17.2</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>-0.99690006604159609</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>-0.99265938047063318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>-0.94884449791812397</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>17.8</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>-0.86720217948558131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>18</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>-0.75098724677167605</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>18.2</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>-0.60483282240628411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>-0.43456562207189675</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>-0.24697366173662089</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>18.8</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>-4.9535640878367419E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>19</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>0.14987720966295234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>19.2</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>0.34331492881989539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>0.52306576515769643</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>0.6819636200681356</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>19.8</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>0.81367373750710537</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>20</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>0.91294525072762767</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>20.2</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>0.97582051776697554</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>0.99979290014266919</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>20.6</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>0.98390669461861613</v>
       </c>
     </row>
   </sheetData>
